--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A6406D-1E12-43D1-A963-7142BF765609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBE1BF-F108-4633-BB8B-FE78161E69B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
   <si>
     <t>Fidelity</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>1.23</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
 </sst>
 </file>
@@ -488,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,6 +1210,9 @@
       <c r="G68">
         <v>3</v>
       </c>
+      <c r="J68" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70">
@@ -1218,6 +1233,9 @@
       <c r="G70">
         <v>5</v>
       </c>
+      <c r="J70" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72">
@@ -1237,6 +1255,9 @@
       </c>
       <c r="G72">
         <v>7</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -1261,6 +1282,9 @@
       <c r="G75">
         <v>3</v>
       </c>
+      <c r="J75" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
@@ -1281,6 +1305,9 @@
       <c r="G77">
         <v>5</v>
       </c>
+      <c r="J77" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
@@ -1301,8 +1328,11 @@
       <c r="G79">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="G82">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -1344,8 +1377,11 @@
       <c r="G84">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -1363,6 +1399,9 @@
       </c>
       <c r="G86">
         <v>7</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBE1BF-F108-4633-BB8B-FE78161E69B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2144ED8-B9AF-449D-9948-EE5E7B740EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>Fidelity</t>
   </si>
@@ -146,18 +146,12 @@
     <t>2.45</t>
   </si>
   <si>
-    <t>11 caso</t>
-  </si>
-  <si>
     <t>23.4</t>
   </si>
   <si>
     <t>62.3</t>
   </si>
   <si>
-    <t>12 caso</t>
-  </si>
-  <si>
     <t>3.e+10</t>
   </si>
   <si>
@@ -180,6 +174,24 @@
   </si>
   <si>
     <t>1.8</t>
+  </si>
+  <si>
+    <t>11 caso, dal github</t>
+  </si>
+  <si>
+    <t>12 caso, dal github</t>
+  </si>
+  <si>
+    <t>13 caso, come il 9 ma con Bitflip</t>
+  </si>
+  <si>
+    <t>14 caso, come il 10 ma con il Bitflip</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -215,9 +227,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -498,14 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J86"/>
+  <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -559,9 +573,12 @@
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -582,9 +599,12 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -605,9 +625,15 @@
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -631,10 +657,13 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f>(2+2+2+2+1+1+3+1+1+3+1+2+3+3+2+2+1+5+1+1+1+1+3+1+1+1+1+1+1+1)/30</f>
         <v>1.7</v>
       </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -655,10 +684,13 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f>(1+1+1+1+1+1+2+1+1+2+1+1+1+1+1+1+1+1+1+2+2+1+1+1+2+1+1+1+3+1)/30</f>
         <v>1.2333333333333334</v>
       </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -679,10 +711,16 @@
       <c r="G14">
         <v>7</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f>(1+1+1+1+3+1+1+1+1+1+1+2+1+1+1+1+2+1+1+1+2+1+1+1+2+1+2+1+1+1)/30</f>
         <v>1.2333333333333334</v>
       </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -706,9 +744,12 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>3</v>
       </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -729,9 +770,12 @@
       <c r="G19">
         <v>5</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -752,9 +796,15 @@
       <c r="G21">
         <v>7</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -778,9 +828,12 @@
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -801,9 +854,12 @@
       <c r="G26">
         <v>5</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -824,9 +880,15 @@
       <c r="G28">
         <v>7</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -850,9 +912,12 @@
       <c r="G31">
         <v>3</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
@@ -873,9 +938,12 @@
       <c r="G33">
         <v>5</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="2" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -896,9 +964,18 @@
       <c r="G35">
         <v>7</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -922,16 +999,19 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="C41" t="s">
+        <v>6</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -945,16 +1025,19 @@
       <c r="G41">
         <v>5</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -968,9 +1051,15 @@
       <c r="G43">
         <v>7</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -994,9 +1083,12 @@
       <c r="G46">
         <v>3</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
@@ -1017,9 +1109,12 @@
       <c r="G48">
         <v>5</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="2" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
@@ -1040,9 +1135,15 @@
       <c r="G50">
         <v>7</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -1066,9 +1167,12 @@
       <c r="G53">
         <v>3</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="2" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
@@ -1089,9 +1193,12 @@
       <c r="G55">
         <v>5</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="2" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
@@ -1112,9 +1219,18 @@
       <c r="G57">
         <v>7</v>
       </c>
-      <c r="J57" t="s">
-        <v>42</v>
-      </c>
+      <c r="J57" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -1138,9 +1254,12 @@
       <c r="G61">
         <v>3</v>
       </c>
-      <c r="J61" t="s">
-        <v>43</v>
-      </c>
+      <c r="J61" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
@@ -1161,9 +1280,12 @@
       <c r="G63">
         <v>5</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
@@ -1184,9 +1306,15 @@
       <c r="G65">
         <v>7</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -1210,9 +1338,12 @@
       <c r="G68">
         <v>3</v>
       </c>
-      <c r="J68" t="s">
-        <v>44</v>
-      </c>
+      <c r="J68" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70">
@@ -1233,9 +1364,12 @@
       <c r="G70">
         <v>5</v>
       </c>
-      <c r="J70" t="s">
-        <v>42</v>
-      </c>
+      <c r="J70" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72">
@@ -1256,13 +1390,19 @@
       <c r="G72">
         <v>7</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -1274,17 +1414,20 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
-      <c r="J75" t="s">
-        <v>45</v>
-      </c>
+      <c r="J75" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
@@ -1297,17 +1440,20 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>5</v>
       </c>
-      <c r="J77" t="s">
-        <v>46</v>
-      </c>
+      <c r="J77" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
@@ -1320,43 +1466,52 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>7</v>
       </c>
-      <c r="J79" t="s">
-        <v>47</v>
-      </c>
+      <c r="J79" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
         <v>39</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" t="s">
-        <v>41</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
@@ -1369,17 +1524,20 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G84">
         <v>5</v>
       </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
@@ -1392,16 +1550,184 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G86">
-        <v>7</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2144ED8-B9AF-449D-9948-EE5E7B740EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A033DD7B-03C9-427F-920D-C5C00EB5E853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,10 +1489,10 @@
         <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1507,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="J82" s="2">
-        <v>1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -1515,10 +1515,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1533,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="2">
-        <v>1</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -1541,10 +1541,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1559,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="J86" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
